--- a/data/trans_dic/P25A$otro-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25A$otro-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -695,37 +696,37 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,58</t>
+          <t>0,0; 43,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,99; 49,82</t>
+          <t>0,0; 50,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,58</t>
+          <t>0,0; 21,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,37</t>
+          <t>0,0; 27,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,35; 32,23</t>
+          <t>3,45; 32,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,74</t>
+          <t>0,0; 14,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,5</t>
+          <t>0,0; 25,89</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,2</t>
+          <t>0,0; 15,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,02; 10,73</t>
+          <t>1,27; 10,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,59; 21,64</t>
+          <t>2,55; 21,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,89; 33,94</t>
+          <t>13,35; 33,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,31; 23,88</t>
+          <t>7,31; 23,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,94; 33,73</t>
+          <t>12,17; 33,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,87; 23,17</t>
+          <t>9,43; 23,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,24; 15,0</t>
+          <t>5,31; 16,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,23; 24,5</t>
+          <t>9,42; 23,54</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,14</t>
+          <t>0,0; 8,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 8,37</t>
+          <t>0,83; 7,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,18; 21,91</t>
+          <t>6,81; 23,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,94; 16,98</t>
+          <t>2,99; 16,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,29</t>
+          <t>0,0; 5,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,0; 21,84</t>
+          <t>6,79; 22,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 9,16</t>
+          <t>1,89; 8,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 5,27</t>
+          <t>0,84; 5,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,35; 18,93</t>
+          <t>8,87; 19,22</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 8,55</t>
+          <t>0,85; 7,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,69</t>
+          <t>0,0; 3,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,19; 14,71</t>
+          <t>3,08; 14,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,47</t>
+          <t>0,0; 9,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,15; 10,87</t>
+          <t>1,18; 10,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,35; 21,89</t>
+          <t>7,11; 22,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 7,73</t>
+          <t>1,07; 7,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,83; 4,86</t>
+          <t>0,81; 5,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,76; 14,22</t>
+          <t>5,93; 14,57</t>
         </is>
       </c>
     </row>
@@ -1125,17 +1126,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,41; 8,03</t>
+          <t>1,32; 8,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,67; 5,59</t>
+          <t>0,67; 5,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,25; 20,48</t>
+          <t>8,48; 20,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1150,22 +1151,22 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,22; 24,92</t>
+          <t>3,05; 24,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,27; 7,49</t>
+          <t>1,14; 7,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,15</t>
+          <t>0,49; 4,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,22; 18,45</t>
+          <t>8,04; 17,94</t>
         </is>
       </c>
     </row>
@@ -1235,22 +1236,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,15</t>
+          <t>0,0; 5,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,84</t>
+          <t>0,0; 2,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,85; 13,36</t>
+          <t>3,92; 13,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,07</t>
+          <t>0,0; 35,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1260,22 +1261,22 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,7</t>
+          <t>0,0; 19,93</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,62; 6,02</t>
+          <t>0,6; 5,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,17</t>
+          <t>0,0; 3,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,35; 11,86</t>
+          <t>3,84; 12,27</t>
         </is>
       </c>
     </row>
@@ -1345,17 +1346,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,68</t>
+          <t>0,0; 4,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,74; 8,44</t>
+          <t>0,74; 9,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,3; 12,39</t>
+          <t>3,13; 12,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1380,12 +1381,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,71; 8,56</t>
+          <t>0,72; 8,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,03; 12,69</t>
+          <t>3,0; 12,35</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,76</t>
+          <t>1,35; 3,85</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,35</t>
+          <t>1,3; 3,57</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,27; 12,08</t>
+          <t>7,25; 12,09</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,47; 15,37</t>
+          <t>7,25; 15,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,91; 7,53</t>
+          <t>2,87; 7,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>9,14; 16,99</t>
+          <t>9,85; 17,24</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,52; 6,37</t>
+          <t>3,48; 6,47</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,07; 4,02</t>
+          <t>2,13; 4,28</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8,68; 12,7</t>
+          <t>8,67; 12,91</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, el consejo médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1002</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3448</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3449</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1771</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1871</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4154</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7808</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4176</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4519</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>923; 8726</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5185</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6718</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1037</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2939</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4404</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>15837</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>11997</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>12209</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>16873</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>14936</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>16613</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5988</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>922; 7996</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1242; 10525</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>9352; 23473</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>6054; 19727</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>7057; 19221</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>10325; 25948</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>8259; 25107</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>10041; 25083</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1849</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3810</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>9593</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5130</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>11861</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6979</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5755</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>21454</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6827</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>937; 8803</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5059; 17585</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1980; 11092</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6464</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5967; 19571</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2862; 13200</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1989; 12264</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>14387; 31179</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3859</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2042</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>7720</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4209</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>11274</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5805</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>6251</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>18994</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1072; 9467</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6336</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3330; 15328</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5570</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1084; 9939</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>6275; 19919</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1966; 13014</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2107; 13371</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>11651; 28617</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>4805</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2929</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>17611</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>5874</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>4805</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2929</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>23485</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1690; 10326</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>939; 7816</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>11285; 27317</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1837</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2105</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1738; 13782</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1663; 11301</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>942; 8765</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>15261; 34075</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1757</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1098</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>9727</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1038</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2883</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1098</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>10765</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6195</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4778</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>4827; 16770</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4748</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1814</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5135</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>819; 7998</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5964</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>5726; 18275</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1007</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>4326</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>7269</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1007</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>4326</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>7269</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5071</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1053; 13082</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>3405; 13285</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2147</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1693</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1420</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4973</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1070; 11945</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>3333; 13732</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>14314</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>17144</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>57326</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>27487</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>19143</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>43260</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>41800</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>36288</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>100586</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>8406; 24022</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>10634; 29115</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>43893; 73216</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>18170; 38337</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>11097; 28684</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>33090; 57877</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>30420; 56623</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>25667; 51431</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>81630; 121487</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P25A$otro-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25A$otro-Edad-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyo motivo para dejar de fumar fue, al menos, el consejo médico</t>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, otros motivos</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1559,7 +1559,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyo motivo para dejar de fumar fue, al menos, el consejo médico</t>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, otros motivos</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
